--- a/data/surge/surgeData999.xlsx
+++ b/data/surge/surgeData999.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/R10/CH4_999_Baker/dataSheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JBEAULIE\Environmental Protection Agency (EPA)\SuRGE Survey of Reservoir Greenhouse gas Emissions - Documents\data\R10\CH4_999_Baker\dataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="8_{4E56AB59-D9B0-43CC-99B1-5756BEDBA300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29B5EC14-9532-4B5F-B1F3-3260FBA34643}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD62CF40-C131-4255-BD87-75624CB94957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="247">
   <si>
     <t>F1</t>
   </si>
@@ -693,9 +693,6 @@
   </si>
   <si>
     <t>18R100497</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>13:03:00</t>
@@ -1759,82 +1756,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BZ33"/>
+  <dimension ref="A1:BZ17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J32" sqref="J32"/>
+      <selection pane="topRight" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.33203125" customWidth="1"/>
-    <col min="30" max="30" width="10.33203125" customWidth="1"/>
-    <col min="31" max="31" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.28515625" customWidth="1"/>
+    <col min="30" max="30" width="10.28515625" customWidth="1"/>
+    <col min="31" max="31" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.109375" customWidth="1"/>
+    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.140625" customWidth="1"/>
     <col min="48" max="48" width="5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="17.109375" customWidth="1"/>
-    <col min="50" max="50" width="13.33203125" customWidth="1"/>
-    <col min="51" max="51" width="8.33203125" customWidth="1"/>
-    <col min="52" max="52" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="23.33203125" customWidth="1"/>
-    <col min="65" max="65" width="14.88671875" customWidth="1"/>
-    <col min="66" max="66" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="17.140625" customWidth="1"/>
+    <col min="50" max="50" width="13.28515625" customWidth="1"/>
+    <col min="51" max="51" width="8.28515625" customWidth="1"/>
+    <col min="52" max="52" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="23.28515625" customWidth="1"/>
+    <col min="65" max="65" width="14.85546875" customWidth="1"/>
+    <col min="66" max="66" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="18" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="16.6640625" customWidth="1"/>
+    <col min="70" max="70" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -1926,7 +1923,7 @@
       <c r="BY1" s="32"/>
       <c r="BZ1" s="32"/>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
@@ -2162,7 +2159,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>999</v>
       </c>
@@ -2182,13 +2179,13 @@
         <v>198</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H3" t="s">
         <v>203</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2268,7 +2265,7 @@
       <c r="BY3" s="29"/>
       <c r="BZ3" s="26"/>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>999</v>
       </c>
@@ -2288,13 +2285,13 @@
         <v>198</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H4" t="s">
         <v>203</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J4">
         <v>55</v>
@@ -2378,7 +2375,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>999</v>
       </c>
@@ -2398,13 +2395,13 @@
         <v>198</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H5" t="s">
         <v>203</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2485,7 +2482,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>999</v>
       </c>
@@ -2505,13 +2502,13 @@
         <v>198</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H6" t="s">
         <v>203</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -2592,7 +2589,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>999</v>
       </c>
@@ -2612,13 +2609,13 @@
         <v>198</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H7" t="s">
         <v>203</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2696,7 +2693,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>999</v>
       </c>
@@ -2716,13 +2713,13 @@
         <v>198</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H8" t="s">
         <v>203</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2800,7 +2797,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>999</v>
       </c>
@@ -2820,13 +2817,13 @@
         <v>198</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H9" t="s">
         <v>203</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -2904,7 +2901,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>999</v>
       </c>
@@ -2924,13 +2921,13 @@
         <v>198</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H10" t="s">
         <v>203</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -3008,7 +3005,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>999</v>
       </c>
@@ -3028,13 +3025,13 @@
         <v>198</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H11" t="s">
         <v>203</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3112,7 +3109,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>999</v>
       </c>
@@ -3132,13 +3129,13 @@
         <v>198</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H12" t="s">
         <v>203</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -3222,7 +3219,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>999</v>
       </c>
@@ -3242,13 +3239,13 @@
         <v>198</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H13" t="s">
         <v>203</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -3332,7 +3329,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>999</v>
       </c>
@@ -3352,13 +3349,13 @@
         <v>198</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H14" t="s">
         <v>203</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J14">
         <v>3</v>
@@ -3436,7 +3433,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>999</v>
       </c>
@@ -3456,13 +3453,13 @@
         <v>198</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H15" t="s">
         <v>203</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -3540,7 +3537,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>999</v>
       </c>
@@ -3560,13 +3557,13 @@
         <v>198</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H16" t="s">
         <v>203</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J16">
         <v>11</v>
@@ -3647,7 +3644,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>999</v>
       </c>
@@ -3667,13 +3664,13 @@
         <v>198</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H17" t="s">
         <v>203</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -3750,73 +3747,6 @@
       <c r="BS17" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="18" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="G18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="U18" s="27"/>
-    </row>
-    <row r="19" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="G19" s="26"/>
-      <c r="I19" s="26"/>
-    </row>
-    <row r="20" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="G20" s="26"/>
-      <c r="I20" s="26"/>
-    </row>
-    <row r="21" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="G21" s="26"/>
-      <c r="I21" s="26"/>
-    </row>
-    <row r="22" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="G22" s="26"/>
-      <c r="I22" s="26"/>
-    </row>
-    <row r="23" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="G23" s="26"/>
-      <c r="I23" s="26"/>
-    </row>
-    <row r="24" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="G24" s="26"/>
-      <c r="I24" s="26"/>
-    </row>
-    <row r="25" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="G25" s="26"/>
-      <c r="I25" s="26"/>
-    </row>
-    <row r="26" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="G26" s="26"/>
-      <c r="I26" s="26"/>
-    </row>
-    <row r="27" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="G27" s="26"/>
-      <c r="I27" s="26"/>
-    </row>
-    <row r="28" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="E28" t="s">
-        <v>217</v>
-      </c>
-      <c r="G28" s="26"/>
-      <c r="I28" s="26"/>
-    </row>
-    <row r="29" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="G29" s="26"/>
-      <c r="I29" s="26"/>
-    </row>
-    <row r="30" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="G30" s="26"/>
-      <c r="I30" s="26"/>
-    </row>
-    <row r="31" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="G31" s="26"/>
-      <c r="I31" s="26"/>
-    </row>
-    <row r="32" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="G32" s="26"/>
-      <c r="I32" s="26"/>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G33" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3841,14 +3771,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.6640625" customWidth="1"/>
-    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.7109375" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -3859,7 +3789,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3870,7 +3800,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3881,7 +3811,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
@@ -3892,7 +3822,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3903,7 +3833,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3914,7 +3844,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3925,7 +3855,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3936,7 +3866,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3947,7 +3877,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3958,7 +3888,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3969,7 +3899,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3980,7 +3910,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3991,7 +3921,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -3999,7 +3929,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -4010,7 +3940,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -4018,7 +3948,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -4029,7 +3959,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -4037,7 +3967,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -4048,7 +3978,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -4056,7 +3986,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -4067,7 +3997,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -4078,7 +4008,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -4089,7 +4019,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -4100,7 +4030,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -4111,7 +4041,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -4122,7 +4052,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -4130,7 +4060,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -4141,7 +4071,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -4152,7 +4082,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -4163,7 +4093,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -4174,7 +4104,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -4185,7 +4115,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -4196,7 +4126,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -4207,7 +4137,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -4218,7 +4148,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -4229,7 +4159,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -4237,7 +4167,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -4245,7 +4175,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -4253,7 +4183,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -4261,7 +4191,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -4269,7 +4199,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -4277,7 +4207,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -4285,7 +4215,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -4293,7 +4223,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -4301,7 +4231,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -4309,7 +4239,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -4317,7 +4247,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -4325,7 +4255,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -4333,7 +4263,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -4341,7 +4271,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -4352,7 +4282,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -4363,7 +4293,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -4374,7 +4304,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -4385,7 +4315,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -4396,7 +4326,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -4407,7 +4337,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -4418,7 +4348,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -4429,7 +4359,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -4437,7 +4367,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -4445,7 +4375,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -4453,7 +4383,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -4461,7 +4391,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -4469,7 +4399,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -4477,7 +4407,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -4485,7 +4415,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -4493,7 +4423,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -4501,7 +4431,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -4509,7 +4439,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -4517,7 +4447,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -4525,7 +4455,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -4533,7 +4463,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -4541,7 +4471,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -4552,7 +4482,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -4563,7 +4493,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -4574,7 +4504,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -4585,7 +4515,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -4596,7 +4526,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -4607,7 +4537,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -4631,18 +4561,18 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="25"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="25"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
@@ -4658,7 +4588,7 @@
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
@@ -4692,7 +4622,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>210</v>
       </c>
@@ -4721,7 +4651,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>210</v>
       </c>
@@ -4750,7 +4680,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>210</v>
       </c>
@@ -4779,7 +4709,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>210</v>
       </c>
@@ -4825,14 +4755,14 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.5546875" customWidth="1"/>
-    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -4843,7 +4773,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4854,7 +4784,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4865,7 +4795,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>162</v>
       </c>
@@ -4876,7 +4806,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>163</v>
       </c>
@@ -4887,7 +4817,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>164</v>
       </c>
@@ -4898,7 +4828,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>165</v>
       </c>
@@ -4906,7 +4836,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>166</v>
       </c>
@@ -4917,7 +4847,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>167</v>
       </c>
@@ -4928,7 +4858,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>168</v>
       </c>
@@ -4945,20 +4875,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d40b3e6283001fb57e5088f84fb23d5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aadbb8160917885bdc8cfb32badaafe9" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5429,6 +5345,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5472,22 +5402,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00C0C330-DE6C-43A9-ABBF-85BC796EC8F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5510,6 +5424,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
   <ds:schemaRefs>
